--- a/Database/reports/OS Byggingar_July.xlsx
+++ b/Database/reports/OS Byggingar_July.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,72 +584,107 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>Total: 0.0 hrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Overall Total Hours: 0.0 hrs</t>
-        </is>
-      </c>
-    </row>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>olafur</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Ólafur Sær</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Reykjavíkuvegur 60, 220 Hafnafjörður</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Aðstöðusköpun, rekstur og stjórnun</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Total: 47.7 hrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
     <row r="8">
-      <c r="G8" s="5" t="n"/>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Overall Total Hours: 47.7 hrs</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="G9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Task Summary</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="n"/>
-    </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Task Name</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Total Hours</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>Completed?</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Aðstöðusköpun, rekstur og stjórnun</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B13" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -657,7 +692,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
